--- a/projekti5/text_material/Projektitaulu.xlsx
+++ b/projekti5/text_material/Projektitaulu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexulez\source\Scrum_harjoitus\projekti5\cardgame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hexulez\source\Scrum_harjoitus\projekti5\text_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01CD5F43-DECF-46F5-B79A-A43F04845C8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D113A-EE5D-468C-909D-F57B965B3BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{33616606-520B-414A-8638-603DA55E5AD2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
   <si>
     <t>tehtävä</t>
   </si>
@@ -557,7 +557,7 @@
   <dimension ref="B4:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E35"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,8 +605,12 @@
       <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="8"/>
+      <c r="D7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="5" t="s">
